--- a/ComplejidadComputacional/Complejidad Polinomio.xlsx
+++ b/ComplejidadComputacional/Complejidad Polinomio.xlsx
@@ -108,15 +108,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -124,21 +136,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,33 +513,34 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -483,44 +554,48 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -528,9 +603,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -538,9 +614,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -548,9 +625,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -558,9 +636,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -568,9 +647,10 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -578,9 +658,10 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -588,9 +669,10 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -598,9 +680,10 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -608,9 +691,10 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -618,37 +702,68 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="36">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A12:C12"/>
@@ -657,17 +772,6 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
